--- a/fsh/ig-data/input/images/CPCDStoFHIRProfilesMapping.xlsx
+++ b/fsh/ig-data/input/images/CPCDStoFHIRProfilesMapping.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/skravitz/git/carin-bb/fsh/ig-data/input/images/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3D2BC751-F888-974A-B084-9C8B0FA81412}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9C992514-7069-884A-BF4A-30F84C2EFE25}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="68800" windowHeight="28340" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7640" yWindow="8260" windowWidth="68800" windowHeight="26740" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rules" sheetId="22" r:id="rId1"/>
@@ -199,7 +199,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Taylor, Pat:</t>
         </r>
@@ -208,7 +208,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 changed from 0..1 to 1..1</t>
@@ -223,7 +223,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Taylor, Pat:</t>
         </r>
@@ -232,7 +232,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 changed from 0..1 to 1..1</t>
@@ -377,7 +377,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Taylor, Pat:</t>
         </r>
@@ -386,7 +386,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 changed name of the slice to match the value clmrecvddate</t>
@@ -609,7 +609,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Taylor, Pat:</t>
         </r>
@@ -618,7 +618,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 added Identifier.type</t>
@@ -681,7 +681,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Taylor, Pat:</t>
         </r>
@@ -690,7 +690,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Defined Resource.profile</t>
@@ -4572,9 +4572,6 @@
     <t>Indicates if the outpatient institutional diagnosis is principal, other, an external cause of injury or a patient reason for visit.</t>
   </si>
   <si>
-    <t>Identifier assigned by a payer for a claim received from a provider or subscriber. It is not the same identifier as that assigned by a provider. This identifier assigned by the payer becomes the payer's EOB identifier.</t>
-  </si>
-  <si>
     <t>Indicates if the inpatient institutional procedure (ICD-PCS) is the principal procedure or another procedure</t>
   </si>
   <si>
@@ -4827,12 +4824,15 @@
   <si>
     <t>CARIN for Blue Button® FHIR Profile</t>
   </si>
+  <si>
+    <t xml:space="preserve">Identifier assigned by a payer for a claim received from a provider or subscriber. It is not the same identifier as that assigned by a provider. </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="33">
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5047,19 +5047,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="18">
@@ -6104,7 +6091,7 @@
     </row>
     <row r="24" spans="1:19">
       <c r="A24" s="22" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="B24" s="22"/>
       <c r="C24" s="22"/>
@@ -6127,7 +6114,7 @@
     </row>
     <row r="25" spans="1:19">
       <c r="A25" s="22" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="B25" s="22"/>
       <c r="C25" s="22"/>
@@ -6173,7 +6160,7 @@
     </row>
     <row r="27" spans="1:19">
       <c r="A27" s="22" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="B27" s="22"/>
       <c r="C27" s="22"/>
@@ -6395,7 +6382,7 @@
         <v>754</v>
       </c>
       <c r="N5" s="6" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="O5" s="6" t="s">
         <v>1011</v>
@@ -6403,7 +6390,7 @@
     </row>
     <row r="6" spans="1:15" ht="66" customHeight="1">
       <c r="A6" s="22" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>183</v>
@@ -6436,7 +6423,7 @@
         <v>754</v>
       </c>
       <c r="N6" s="6" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="O6" s="6"/>
     </row>
@@ -6461,7 +6448,7 @@
         <v>18</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="K7" s="6">
         <f>'Data Element Index'!$A$366</f>
@@ -6472,10 +6459,10 @@
         <v>Practitioner Identifier Type</v>
       </c>
       <c r="M7" s="6" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="N7" s="6" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="O7" s="6"/>
     </row>
@@ -6496,7 +6483,7 @@
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
       <c r="J8" s="6" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="K8" s="6">
         <f>'Data Element Index'!$A$366</f>
@@ -6845,7 +6832,7 @@
         <v>966</v>
       </c>
       <c r="D26" s="92" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="E26" s="92"/>
       <c r="F26" s="92"/>
@@ -6854,10 +6841,10 @@
         <v>17</v>
       </c>
       <c r="I26" s="15" t="s">
+        <v>1238</v>
+      </c>
+      <c r="J26" s="15" t="s">
         <v>1239</v>
-      </c>
-      <c r="J26" s="15" t="s">
-        <v>1240</v>
       </c>
       <c r="K26" s="6">
         <f>'Data Element Index'!$A$309</f>
@@ -6872,7 +6859,7 @@
         <v>989</v>
       </c>
       <c r="O26" s="15" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="27" spans="1:15" s="85" customFormat="1" ht="14.5" customHeight="1">
@@ -6883,7 +6870,7 @@
         <v>966</v>
       </c>
       <c r="D27" s="92" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="E27" s="92"/>
       <c r="F27" s="92"/>
@@ -6892,10 +6879,10 @@
         <v>17</v>
       </c>
       <c r="I27" s="15" t="s">
+        <v>1240</v>
+      </c>
+      <c r="J27" s="15" t="s">
         <v>1241</v>
-      </c>
-      <c r="J27" s="15" t="s">
-        <v>1242</v>
       </c>
       <c r="K27" s="6">
         <f>'Data Element Index'!$A$382</f>
@@ -7214,7 +7201,7 @@
         <v>18</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="K8" s="6">
         <f>'Data Element Index'!$A$367</f>
@@ -7225,10 +7212,10 @@
         <v>Organization Identifier Type</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="N8" s="6" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="O8" s="6"/>
     </row>
@@ -7249,7 +7236,7 @@
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
       <c r="J9" s="6" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="K9" s="6">
         <f>'Data Element Index'!$A$367</f>
@@ -7567,7 +7554,7 @@
       <c r="M21" s="6"/>
       <c r="N21" s="22"/>
       <c r="O21" s="6" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="32">
@@ -7775,7 +7762,7 @@
         <v>966</v>
       </c>
       <c r="D32" s="117" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="E32" s="117"/>
       <c r="F32" s="92"/>
@@ -7784,10 +7771,10 @@
         <v>17</v>
       </c>
       <c r="I32" s="15" t="s">
+        <v>1238</v>
+      </c>
+      <c r="J32" s="15" t="s">
         <v>1239</v>
-      </c>
-      <c r="J32" s="15" t="s">
-        <v>1240</v>
       </c>
       <c r="K32" s="6">
         <f>'Data Element Index'!$A$310</f>
@@ -7802,7 +7789,7 @@
         <v>989</v>
       </c>
       <c r="O32" s="15" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="33" spans="1:15" s="85" customFormat="1" ht="14.5" customHeight="1">
@@ -7813,7 +7800,7 @@
         <v>966</v>
       </c>
       <c r="D33" s="117" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="E33" s="117"/>
       <c r="F33" s="92"/>
@@ -7822,10 +7809,10 @@
         <v>17</v>
       </c>
       <c r="I33" s="15" t="s">
+        <v>1240</v>
+      </c>
+      <c r="J33" s="15" t="s">
         <v>1241</v>
-      </c>
-      <c r="J33" s="15" t="s">
-        <v>1242</v>
       </c>
       <c r="K33" s="6">
         <f>'Data Element Index'!$A$383</f>
@@ -7918,9 +7905,9 @@
   <dimension ref="A1:L386"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L374" sqref="L374"/>
-      <selection pane="bottomLeft" activeCell="N30" sqref="N30"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -7952,7 +7939,7 @@
         <v>810</v>
       </c>
       <c r="E1" s="108" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="F1" s="35" t="s">
         <v>760</v>
@@ -8022,7 +8009,7 @@
         <v>688</v>
       </c>
       <c r="D3" s="72" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="E3" s="17" t="s">
         <v>1152</v>
@@ -8059,7 +8046,7 @@
         <v>688</v>
       </c>
       <c r="D4" s="72" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="E4" s="17" t="s">
         <v>1153</v>
@@ -8096,7 +8083,7 @@
         <v>688</v>
       </c>
       <c r="D5" s="72" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="E5" s="17" t="s">
         <v>1154</v>
@@ -8133,7 +8120,7 @@
         <v>688</v>
       </c>
       <c r="D6" s="72" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="E6" s="17" t="s">
         <v>592</v>
@@ -10922,7 +10909,7 @@
         <v>1190</v>
       </c>
       <c r="D81" s="49" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="E81" s="17" t="s">
         <v>1152</v>
@@ -10962,7 +10949,7 @@
         <v>1191</v>
       </c>
       <c r="D82" s="49" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="E82" s="17" t="s">
         <v>1152</v>
@@ -11002,7 +10989,7 @@
         <v>1190</v>
       </c>
       <c r="D83" s="49" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="E83" s="17" t="s">
         <v>1153</v>
@@ -11042,7 +11029,7 @@
         <v>1191</v>
       </c>
       <c r="D84" s="49" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="E84" s="17" t="s">
         <v>1153</v>
@@ -11082,7 +11069,7 @@
         <v>1191</v>
       </c>
       <c r="D85" s="49" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="E85" s="17" t="s">
         <v>1154</v>
@@ -11122,7 +11109,7 @@
         <v>1191</v>
       </c>
       <c r="D86" s="49" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="E86" s="17" t="s">
         <v>592</v>
@@ -13456,7 +13443,7 @@
       </c>
       <c r="K148" s="17"/>
     </row>
-    <row r="149" spans="1:11" s="8" customFormat="1" ht="96.5" customHeight="1">
+    <row r="149" spans="1:11" s="8" customFormat="1" ht="57.5" customHeight="1">
       <c r="A149" s="38">
         <v>35</v>
       </c>
@@ -13467,7 +13454,7 @@
         <v>1000</v>
       </c>
       <c r="D149" s="9" t="s">
-        <v>1226</v>
+        <v>1307</v>
       </c>
       <c r="E149" s="17" t="s">
         <v>1152</v>
@@ -13490,7 +13477,7 @@
       </c>
       <c r="K149" s="17"/>
     </row>
-    <row r="150" spans="1:11" s="8" customFormat="1" ht="84">
+    <row r="150" spans="1:11" s="8" customFormat="1" ht="56">
       <c r="A150" s="38">
         <v>35</v>
       </c>
@@ -13501,7 +13488,7 @@
         <v>1000</v>
       </c>
       <c r="D150" s="9" t="s">
-        <v>1226</v>
+        <v>1307</v>
       </c>
       <c r="E150" s="17" t="s">
         <v>1153</v>
@@ -13524,7 +13511,7 @@
       </c>
       <c r="K150" s="17"/>
     </row>
-    <row r="151" spans="1:11" s="8" customFormat="1" ht="92.5" customHeight="1">
+    <row r="151" spans="1:11" s="8" customFormat="1" ht="59" customHeight="1">
       <c r="A151" s="38">
         <v>35</v>
       </c>
@@ -13535,7 +13522,7 @@
         <v>1000</v>
       </c>
       <c r="D151" s="9" t="s">
-        <v>1226</v>
+        <v>1307</v>
       </c>
       <c r="E151" s="17" t="s">
         <v>1154</v>
@@ -13568,7 +13555,7 @@
       <c r="C152" s="9" t="s">
         <v>758</v>
       </c>
-      <c r="D152" s="18" t="s">
+      <c r="D152" s="9" t="s">
         <v>759</v>
       </c>
       <c r="E152" s="17" t="s">
@@ -13751,7 +13738,7 @@
         <v>694</v>
       </c>
       <c r="D157" s="18" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="E157" s="17" t="s">
         <v>592</v>
@@ -15550,7 +15537,7 @@
         <v>874</v>
       </c>
       <c r="D206" s="43" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="E206" s="17" t="s">
         <v>1154</v>
@@ -15742,7 +15729,7 @@
         <v>1043</v>
       </c>
       <c r="D211" s="44" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="E211" s="17" t="s">
         <v>1154</v>
@@ -18965,7 +18952,7 @@
         <v>987</v>
       </c>
       <c r="D303" s="58" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="E303" s="17" t="s">
         <v>1152</v>
@@ -18999,7 +18986,7 @@
         <v>987</v>
       </c>
       <c r="D304" s="58" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="E304" s="17" t="s">
         <v>1153</v>
@@ -19033,7 +19020,7 @@
         <v>987</v>
       </c>
       <c r="D305" s="58" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="E305" s="17" t="s">
         <v>1154</v>
@@ -19067,7 +19054,7 @@
         <v>987</v>
       </c>
       <c r="D306" s="58" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="E306" s="63" t="s">
         <v>592</v>
@@ -19168,10 +19155,10 @@
       </c>
       <c r="B309" s="17"/>
       <c r="C309" s="9" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="D309" s="58" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="E309" s="63" t="s">
         <v>183</v>
@@ -19203,10 +19190,10 @@
       </c>
       <c r="B310" s="17"/>
       <c r="C310" s="9" t="s">
+        <v>1232</v>
+      </c>
+      <c r="D310" s="58" t="s">
         <v>1233</v>
-      </c>
-      <c r="D310" s="58" t="s">
-        <v>1234</v>
       </c>
       <c r="E310" s="63" t="s">
         <v>526</v>
@@ -19597,7 +19584,7 @@
         <v>1014</v>
       </c>
       <c r="D321" s="44" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="E321" s="17" t="s">
         <v>1154</v>
@@ -19781,7 +19768,7 @@
         <v>1044</v>
       </c>
       <c r="D326" s="44" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="E326" s="17" t="s">
         <v>1154</v>
@@ -20835,10 +20822,10 @@
       </c>
       <c r="B355" s="63"/>
       <c r="C355" s="17" t="s">
+        <v>1300</v>
+      </c>
+      <c r="D355" s="58" t="s">
         <v>1301</v>
-      </c>
-      <c r="D355" s="58" t="s">
-        <v>1302</v>
       </c>
       <c r="E355" s="17" t="s">
         <v>1152</v>
@@ -20870,10 +20857,10 @@
       </c>
       <c r="B356" s="63"/>
       <c r="C356" s="17" t="s">
+        <v>1300</v>
+      </c>
+      <c r="D356" s="58" t="s">
         <v>1301</v>
-      </c>
-      <c r="D356" s="58" t="s">
-        <v>1302</v>
       </c>
       <c r="E356" s="17" t="s">
         <v>1153</v>
@@ -20905,10 +20892,10 @@
       </c>
       <c r="B357" s="63"/>
       <c r="C357" s="17" t="s">
+        <v>1300</v>
+      </c>
+      <c r="D357" s="58" t="s">
         <v>1301</v>
-      </c>
-      <c r="D357" s="58" t="s">
-        <v>1302</v>
       </c>
       <c r="E357" s="17" t="s">
         <v>1154</v>
@@ -20940,10 +20927,10 @@
       </c>
       <c r="B358" s="63"/>
       <c r="C358" s="17" t="s">
+        <v>1300</v>
+      </c>
+      <c r="D358" s="58" t="s">
         <v>1301</v>
-      </c>
-      <c r="D358" s="58" t="s">
-        <v>1302</v>
       </c>
       <c r="E358" s="17" t="s">
         <v>592</v>
@@ -21054,13 +21041,13 @@
         <v>1207</v>
       </c>
       <c r="D361" s="63" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="E361" s="17" t="s">
         <v>1152</v>
       </c>
       <c r="F361" s="63" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="G361" s="17" t="str">
         <f>'EOB Inpatient Institutional'!$B$5</f>
@@ -21089,13 +21076,13 @@
         <v>1207</v>
       </c>
       <c r="D362" s="63" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="E362" s="17" t="s">
         <v>1153</v>
       </c>
       <c r="F362" s="63" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="G362" s="17" t="str">
         <f>'EOB Outpatient Institutional'!$B$5</f>
@@ -21124,13 +21111,13 @@
         <v>1207</v>
       </c>
       <c r="D363" s="63" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="E363" s="17" t="s">
         <v>1154</v>
       </c>
       <c r="F363" s="63" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="G363" s="17" t="str">
         <f>'EOB Professional&amp;Non-Clinician'!$B$5</f>
@@ -21159,13 +21146,13 @@
         <v>1207</v>
       </c>
       <c r="D364" s="63" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="E364" s="17" t="s">
         <v>592</v>
       </c>
       <c r="F364" s="63" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="G364" s="17" t="str">
         <f>'EOB Pharmacy'!$B$5</f>
@@ -21194,13 +21181,13 @@
         <v>1208</v>
       </c>
       <c r="D365" s="63" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="E365" s="63" t="s">
         <v>105</v>
       </c>
       <c r="F365" s="57" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="G365" s="17" t="str">
         <f>Patient!$B$19</f>
@@ -21226,16 +21213,16 @@
       </c>
       <c r="B366" s="63"/>
       <c r="C366" s="44" t="s">
+        <v>1248</v>
+      </c>
+      <c r="D366" s="63" t="s">
         <v>1249</v>
-      </c>
-      <c r="D366" s="63" t="s">
-        <v>1250</v>
       </c>
       <c r="E366" s="63" t="s">
         <v>183</v>
       </c>
       <c r="F366" s="57" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="G366" s="17" t="str">
         <f>Practitioner!$B$7</f>
@@ -21264,13 +21251,13 @@
         <v>1209</v>
       </c>
       <c r="D367" s="63" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="E367" s="63" t="s">
         <v>526</v>
       </c>
       <c r="F367" s="57" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="G367" s="17" t="str">
         <f>Organization!$B$8</f>
@@ -21299,7 +21286,7 @@
         <v>1210</v>
       </c>
       <c r="D368" s="63" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="E368" s="17" t="s">
         <v>1152</v>
@@ -21588,16 +21575,16 @@
       </c>
       <c r="B376" s="17"/>
       <c r="C376" s="9" t="s">
+        <v>1227</v>
+      </c>
+      <c r="D376" s="58" t="s">
         <v>1228</v>
-      </c>
-      <c r="D376" s="58" t="s">
-        <v>1229</v>
       </c>
       <c r="E376" s="17" t="s">
         <v>1152</v>
       </c>
       <c r="F376" s="57" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="G376" s="17" t="str">
         <f>'EOB Inpatient Institutional'!$B$476</f>
@@ -21623,16 +21610,16 @@
       </c>
       <c r="B377" s="17"/>
       <c r="C377" s="9" t="s">
+        <v>1227</v>
+      </c>
+      <c r="D377" s="58" t="s">
         <v>1228</v>
-      </c>
-      <c r="D377" s="58" t="s">
-        <v>1229</v>
       </c>
       <c r="E377" s="17" t="s">
         <v>1153</v>
       </c>
       <c r="F377" s="57" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="G377" s="17" t="str">
         <f>'EOB Outpatient Institutional'!$B$425</f>
@@ -21658,16 +21645,16 @@
       </c>
       <c r="B378" s="17"/>
       <c r="C378" s="9" t="s">
+        <v>1227</v>
+      </c>
+      <c r="D378" s="58" t="s">
         <v>1228</v>
-      </c>
-      <c r="D378" s="58" t="s">
-        <v>1229</v>
       </c>
       <c r="E378" s="17" t="s">
         <v>1154</v>
       </c>
       <c r="F378" s="57" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="G378" s="17" t="str">
         <f>'EOB Professional&amp;Non-Clinician'!$B$334</f>
@@ -21693,16 +21680,16 @@
       </c>
       <c r="B379" s="17"/>
       <c r="C379" s="9" t="s">
+        <v>1227</v>
+      </c>
+      <c r="D379" s="58" t="s">
         <v>1228</v>
-      </c>
-      <c r="D379" s="58" t="s">
-        <v>1229</v>
       </c>
       <c r="E379" s="63" t="s">
         <v>592</v>
       </c>
       <c r="F379" s="57" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="G379" s="17" t="str">
         <f>'EOB Pharmacy'!$B$440</f>
@@ -21728,16 +21715,16 @@
       </c>
       <c r="B380" s="17"/>
       <c r="C380" s="9" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="D380" s="58" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="E380" s="63" t="s">
         <v>0</v>
       </c>
       <c r="F380" s="57" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="G380" s="17" t="str">
         <f>Coverage!$B$49</f>
@@ -21763,16 +21750,16 @@
       </c>
       <c r="B381" s="17"/>
       <c r="C381" s="9" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="D381" s="58" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="E381" s="63" t="s">
         <v>105</v>
       </c>
       <c r="F381" s="57" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="G381" s="17" t="str">
         <f>Patient!$B$66</f>
@@ -21798,16 +21785,16 @@
       </c>
       <c r="B382" s="17"/>
       <c r="C382" s="9" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="D382" s="58" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="E382" s="63" t="s">
         <v>183</v>
       </c>
       <c r="F382" s="57" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="G382" s="17" t="str">
         <f>Practitioner!$B$27</f>
@@ -21833,16 +21820,16 @@
       </c>
       <c r="B383" s="17"/>
       <c r="C383" s="9" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="D383" s="58" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="E383" s="63" t="s">
         <v>526</v>
       </c>
       <c r="F383" s="57" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="G383" s="17" t="str">
         <f>Organization!$B$33</f>
@@ -21871,13 +21858,13 @@
         <v>1211</v>
       </c>
       <c r="D384" s="72" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E384" s="63" t="s">
         <v>105</v>
       </c>
       <c r="F384" s="50" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="G384" s="17" t="str">
         <f>Patient!$B$15</f>
@@ -21902,19 +21889,19 @@
         <v>192</v>
       </c>
       <c r="B385" s="17" t="s">
+        <v>1264</v>
+      </c>
+      <c r="C385" s="9" t="s">
         <v>1265</v>
       </c>
-      <c r="C385" s="9" t="s">
-        <v>1266</v>
-      </c>
       <c r="D385" s="58" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="E385" s="17" t="s">
         <v>105</v>
       </c>
       <c r="F385" s="50" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="G385" s="17" t="str">
         <f>Patient!$B$32</f>
@@ -21940,16 +21927,16 @@
       </c>
       <c r="B386" s="44"/>
       <c r="C386" s="9" t="s">
+        <v>1274</v>
+      </c>
+      <c r="D386" s="58" t="s">
         <v>1275</v>
-      </c>
-      <c r="D386" s="58" t="s">
-        <v>1276</v>
       </c>
       <c r="E386" s="17" t="s">
         <v>105</v>
       </c>
       <c r="F386" s="50" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="G386" s="17" t="str">
         <f>Patient!$B$37</f>
@@ -23161,7 +23148,7 @@
         <v>966</v>
       </c>
       <c r="D48" s="92" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="E48" s="92"/>
       <c r="F48" s="92"/>
@@ -23170,10 +23157,10 @@
         <v>17</v>
       </c>
       <c r="I48" s="15" t="s">
+        <v>1238</v>
+      </c>
+      <c r="J48" s="15" t="s">
         <v>1239</v>
-      </c>
-      <c r="J48" s="15" t="s">
-        <v>1240</v>
       </c>
       <c r="K48" s="6">
         <f>'Data Element Index'!$A$307</f>
@@ -23199,7 +23186,7 @@
         <v>966</v>
       </c>
       <c r="D49" s="92" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="E49" s="92"/>
       <c r="F49" s="92"/>
@@ -23208,10 +23195,10 @@
         <v>17</v>
       </c>
       <c r="I49" s="15" t="s">
+        <v>1240</v>
+      </c>
+      <c r="J49" s="15" t="s">
         <v>1241</v>
-      </c>
-      <c r="J49" s="15" t="s">
-        <v>1242</v>
       </c>
       <c r="K49" s="6">
         <f>'Data Element Index'!$A$380</f>
@@ -28781,7 +28768,7 @@
         <v>18</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="K5" s="6">
         <f>'Data Element Index'!$A$361</f>
@@ -28792,10 +28779,10 @@
         <v>Claim Identifier Type</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="N5" s="6" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="O5" s="6"/>
     </row>
@@ -28816,7 +28803,7 @@
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
       <c r="J6" s="6" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="K6" s="6">
         <f>'Data Element Index'!$A$361</f>
@@ -28858,7 +28845,7 @@
 </v>
       </c>
       <c r="N7" s="6" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="29.25" customHeight="1">
@@ -28901,7 +28888,7 @@
         <v>Claim type</v>
       </c>
       <c r="N9" s="6" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="61" customHeight="1">
@@ -28925,7 +28912,7 @@
         <v>634</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="43" customHeight="1">
@@ -29044,7 +29031,7 @@
       </c>
       <c r="N15" s="125"/>
       <c r="O15" s="6" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="29.25" customHeight="1">
@@ -33746,7 +33733,7 @@
         <v>319</v>
       </c>
       <c r="N200" s="6" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="201" spans="1:15" ht="29.25" customHeight="1">
@@ -34485,7 +34472,7 @@
         <v>578</v>
       </c>
       <c r="N232" s="6" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="233" spans="1:15" s="22" customFormat="1" ht="58.5" customHeight="1">
@@ -34872,7 +34859,7 @@
         <v>579</v>
       </c>
       <c r="N246" s="6" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="247" spans="1:15" ht="66.5" customHeight="1">
@@ -35013,7 +35000,7 @@
         <v>186</v>
       </c>
       <c r="O252" s="6" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="253" spans="1:15" ht="30.5" customHeight="1">
@@ -35042,7 +35029,7 @@
         <v>186</v>
       </c>
       <c r="N253" s="6" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="O253"/>
     </row>
@@ -40337,7 +40324,7 @@
         <v>966</v>
       </c>
       <c r="D475" s="92" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="E475" s="92"/>
       <c r="F475" s="92"/>
@@ -40346,10 +40333,10 @@
         <v>12</v>
       </c>
       <c r="I475" s="15" t="s">
+        <v>1238</v>
+      </c>
+      <c r="J475" s="15" t="s">
         <v>1239</v>
-      </c>
-      <c r="J475" s="15" t="s">
-        <v>1240</v>
       </c>
       <c r="K475" s="6">
         <f>'Data Element Index'!$A$303</f>
@@ -40364,7 +40351,7 @@
         <v>989</v>
       </c>
       <c r="O475" s="15" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="476" spans="1:15" s="85" customFormat="1" ht="14.5" customHeight="1">
@@ -40375,7 +40362,7 @@
         <v>966</v>
       </c>
       <c r="D476" s="92" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="E476" s="92"/>
       <c r="F476" s="92"/>
@@ -40384,10 +40371,10 @@
         <v>12</v>
       </c>
       <c r="I476" s="15" t="s">
+        <v>1240</v>
+      </c>
+      <c r="J476" s="15" t="s">
         <v>1241</v>
-      </c>
-      <c r="J476" s="15" t="s">
-        <v>1242</v>
       </c>
       <c r="K476" s="6">
         <f>'Data Element Index'!$A$376</f>
@@ -40619,7 +40606,7 @@
         <v>18</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="K5" s="6">
         <f>'Data Element Index'!$A$362</f>
@@ -40630,10 +40617,10 @@
         <v>Claim Identifier Type</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="N5" s="6" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="O5" s="6"/>
     </row>
@@ -40654,7 +40641,7 @@
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
       <c r="J6" s="6" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="K6" s="6">
         <f>'Data Element Index'!$A$362</f>
@@ -40701,7 +40688,7 @@
       </c>
       <c r="M7" s="6"/>
       <c r="N7" s="6" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="O7" s="6"/>
     </row>
@@ -50422,7 +50409,7 @@
         <v>966</v>
       </c>
       <c r="D424" s="92" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="E424" s="92"/>
       <c r="F424" s="92"/>
@@ -50431,10 +50418,10 @@
         <v>12</v>
       </c>
       <c r="I424" s="15" t="s">
+        <v>1238</v>
+      </c>
+      <c r="J424" s="15" t="s">
         <v>1239</v>
-      </c>
-      <c r="J424" s="15" t="s">
-        <v>1240</v>
       </c>
       <c r="K424" s="6">
         <f>'Data Element Index'!$A$304</f>
@@ -50449,7 +50436,7 @@
         <v>989</v>
       </c>
       <c r="O424" s="15" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="425" spans="1:15" s="85" customFormat="1" ht="14.5" hidden="1" customHeight="1">
@@ -50460,7 +50447,7 @@
         <v>966</v>
       </c>
       <c r="D425" s="92" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="E425" s="92"/>
       <c r="F425" s="92"/>
@@ -50469,10 +50456,10 @@
         <v>12</v>
       </c>
       <c r="I425" s="15" t="s">
+        <v>1240</v>
+      </c>
+      <c r="J425" s="15" t="s">
         <v>1241</v>
-      </c>
-      <c r="J425" s="15" t="s">
-        <v>1242</v>
       </c>
       <c r="K425" s="6">
         <f>'Data Element Index'!$A$377</f>
@@ -50711,7 +50698,7 @@
         <v>18</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="K5" s="6">
         <f>'Data Element Index'!$A$363</f>
@@ -50722,10 +50709,10 @@
         <v>Claim Identifier Type</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="N5" s="6" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="O5" s="6"/>
     </row>
@@ -50746,7 +50733,7 @@
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
       <c r="J6" s="6" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="K6" s="6">
         <f>'Data Element Index'!$A$363</f>
@@ -50788,7 +50775,7 @@
 </v>
       </c>
       <c r="N7" s="6" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="16">
@@ -53832,7 +53819,7 @@
         <v>825</v>
       </c>
       <c r="O134" s="6" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="135" spans="1:15" ht="96">
@@ -58372,7 +58359,7 @@
         <v>966</v>
       </c>
       <c r="D333" s="92" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="E333" s="92"/>
       <c r="F333" s="92"/>
@@ -58381,10 +58368,10 @@
         <v>12</v>
       </c>
       <c r="I333" s="15" t="s">
+        <v>1238</v>
+      </c>
+      <c r="J333" s="15" t="s">
         <v>1239</v>
-      </c>
-      <c r="J333" s="15" t="s">
-        <v>1240</v>
       </c>
       <c r="K333" s="6">
         <f>'Data Element Index'!$A$305</f>
@@ -58399,7 +58386,7 @@
         <v>989</v>
       </c>
       <c r="O333" s="15" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="334" spans="1:15" s="85" customFormat="1" ht="14.5" customHeight="1">
@@ -58410,7 +58397,7 @@
         <v>966</v>
       </c>
       <c r="D334" s="92" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="E334" s="92"/>
       <c r="F334" s="92"/>
@@ -58419,10 +58406,10 @@
         <v>12</v>
       </c>
       <c r="I334" s="15" t="s">
+        <v>1240</v>
+      </c>
+      <c r="J334" s="15" t="s">
         <v>1241</v>
-      </c>
-      <c r="J334" s="15" t="s">
-        <v>1242</v>
       </c>
       <c r="K334" s="6">
         <f>'Data Element Index'!$A$378</f>
@@ -58657,7 +58644,7 @@
         <v>18</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="K5" s="6">
         <f>'Data Element Index'!$A$364</f>
@@ -58668,10 +58655,10 @@
         <v>Claim Identifier Type</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="N5" s="6" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="O5" s="6"/>
     </row>
@@ -58692,7 +58679,7 @@
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
       <c r="J6" s="6" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="K6" s="6">
         <f>'Data Element Index'!$A$364</f>
@@ -58738,7 +58725,7 @@
       </c>
       <c r="M7" s="6"/>
       <c r="N7" s="6" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="O7" s="6"/>
     </row>
@@ -68489,7 +68476,7 @@
         <v>966</v>
       </c>
       <c r="D439" s="92" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="E439" s="92"/>
       <c r="F439" s="92"/>
@@ -68498,10 +68485,10 @@
         <v>12</v>
       </c>
       <c r="I439" s="15" t="s">
+        <v>1238</v>
+      </c>
+      <c r="J439" s="15" t="s">
         <v>1239</v>
-      </c>
-      <c r="J439" s="15" t="s">
-        <v>1240</v>
       </c>
       <c r="K439" s="6">
         <f>'Data Element Index'!$A$306</f>
@@ -68516,7 +68503,7 @@
         <v>989</v>
       </c>
       <c r="O439" s="15" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="440" spans="1:15" s="85" customFormat="1" ht="14.5" customHeight="1">
@@ -68527,7 +68514,7 @@
         <v>966</v>
       </c>
       <c r="D440" s="92" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="E440" s="92"/>
       <c r="F440" s="92"/>
@@ -68536,10 +68523,10 @@
         <v>12</v>
       </c>
       <c r="I440" s="15" t="s">
+        <v>1240</v>
+      </c>
+      <c r="J440" s="15" t="s">
         <v>1241</v>
-      </c>
-      <c r="J440" s="15" t="s">
-        <v>1242</v>
       </c>
       <c r="K440" s="6">
         <f>'Data Element Index'!$A$379</f>
@@ -69223,7 +69210,7 @@
         <v>18</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="K19" s="6">
         <f>'Data Element Index'!$A$365</f>
@@ -69234,10 +69221,10 @@
         <v>Patient Identifier Type</v>
       </c>
       <c r="M19" s="6" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="N19" s="6" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="O19" s="6"/>
     </row>
@@ -69258,7 +69245,7 @@
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
       <c r="J20" s="6" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="K20" s="6">
         <f>'Data Element Index'!$A$365</f>
@@ -69516,7 +69503,7 @@
         <v>96</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="E31" s="12"/>
       <c r="F31" s="12"/>
@@ -69530,7 +69517,7 @@
         <v>28</v>
       </c>
       <c r="J31" s="6" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="K31" s="6">
         <f>'Data Element Index'!$A$302</f>
@@ -69552,7 +69539,7 @@
         <v>96</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E32" s="12"/>
       <c r="F32" s="12"/>
@@ -69566,7 +69553,7 @@
         <v>28</v>
       </c>
       <c r="J32" s="6" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="K32" s="6">
         <f>'Data Element Index'!$A$385</f>
@@ -69588,7 +69575,7 @@
         <v>96</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="E33" s="12"/>
       <c r="F33" s="12"/>
@@ -69602,7 +69589,7 @@
         <v>28</v>
       </c>
       <c r="J33" s="6" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="K33" s="6">
         <f>'Data Element Index'!$A$262</f>
@@ -69626,7 +69613,7 @@
         <v>96</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="E34" s="12"/>
       <c r="F34" s="12"/>
@@ -69640,7 +69627,7 @@
         <v>28</v>
       </c>
       <c r="J34" s="6" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="K34" s="6">
         <f>'Data Element Index'!$A$263</f>
@@ -69662,7 +69649,7 @@
         <v>96</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="E35" s="12"/>
       <c r="F35" s="12"/>
@@ -69676,7 +69663,7 @@
         <v>28</v>
       </c>
       <c r="J35" s="6" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="K35" s="6">
         <f>'Data Element Index'!$A$268</f>
@@ -69698,7 +69685,7 @@
         <v>96</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="E36" s="12"/>
       <c r="F36" s="12"/>
@@ -69712,7 +69699,7 @@
         <v>28</v>
       </c>
       <c r="J36" s="6" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="K36" s="6">
         <f>'Data Element Index'!$A$264</f>
@@ -69748,7 +69735,7 @@
         <v>38</v>
       </c>
       <c r="J37" s="6" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="K37" s="6">
         <f>'Data Element Index'!$A$386</f>
@@ -70253,7 +70240,7 @@
         <v>966</v>
       </c>
       <c r="D65" s="92" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="E65" s="92"/>
       <c r="F65" s="92"/>
@@ -70262,10 +70249,10 @@
         <v>17</v>
       </c>
       <c r="I65" s="15" t="s">
+        <v>1238</v>
+      </c>
+      <c r="J65" s="15" t="s">
         <v>1239</v>
-      </c>
-      <c r="J65" s="15" t="s">
-        <v>1240</v>
       </c>
       <c r="K65" s="6">
         <f>'Data Element Index'!$A$308</f>
@@ -70280,7 +70267,7 @@
         <v>989</v>
       </c>
       <c r="O65" s="15" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="66" spans="1:15" s="85" customFormat="1" ht="14.5" customHeight="1">
@@ -70291,7 +70278,7 @@
         <v>966</v>
       </c>
       <c r="D66" s="92" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="E66" s="92"/>
       <c r="F66" s="92"/>
@@ -70300,10 +70287,10 @@
         <v>17</v>
       </c>
       <c r="I66" s="15" t="s">
+        <v>1240</v>
+      </c>
+      <c r="J66" s="15" t="s">
         <v>1241</v>
-      </c>
-      <c r="J66" s="15" t="s">
-        <v>1242</v>
       </c>
       <c r="K66" s="6">
         <f>'Data Element Index'!$A$381</f>
